--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -25,7 +25,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CustomerPortal</t>
+    <t>CDPLogin</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -25,7 +25,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t>CustomerPortal</t>
+    <t>CDPLogin</t>
   </si>
 </sst>
 </file>

--- a/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
+++ b/src/main/java/com/cdp/InputFiles/Suite_Web.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>TSID</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>CDPLogin</t>
+  </si>
+  <si>
+    <t>CDPDash</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -504,10 +510,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -533,6 +539,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:XFD1">
